--- a/mapping-sample1.xlsx
+++ b/mapping-sample1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sysmgr\git\20250417\copy-utils-generator-sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0460BB08-4A3A-4197-81AE-93CE7AC2A4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DACD54D-7D82-4C9F-8495-A90767FDC9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2796" yWindow="3792" windowWidth="15348" windowHeight="15276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2796" yWindow="3792" windowWidth="23316" windowHeight="15276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="A1:F3"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.21875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
